--- a/Uploads/PU AMI IPC uploads/formations-pu-ami.xlsx
+++ b/Uploads/PU AMI IPC uploads/formations-pu-ami.xlsx
@@ -6459,6 +6459,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6467,14 +6475,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6786,36 +6786,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="26" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="27" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="2" width="15.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="24" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>2063</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>2062</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="65.25" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -6888,2230 +6888,2230 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>1225</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>1225</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>1225</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="23" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>2066</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>2066</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>2066</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>1227</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>1227</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>1227</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>1328</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>1328</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>1328</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="23" t="s">
         <v>1399</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="23" t="s">
         <v>1399</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="23" t="s">
         <v>1399</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="23" t="s">
         <v>1228</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="23" t="s">
         <v>1228</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="23" t="s">
         <v>1228</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="23" t="s">
         <v>1290</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J56" s="26" t="s">
+      <c r="J56" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>1290</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J57" s="26" t="s">
+      <c r="J57" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="23" t="s">
         <v>1290</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="23" t="s">
         <v>1329</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J59" s="26" t="s">
+      <c r="J59" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="23" t="s">
         <v>1329</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="23" t="s">
         <v>1329</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="23" t="s">
         <v>1359</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J62" s="26" t="s">
+      <c r="J62" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="23" t="s">
         <v>1359</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J63" s="26" t="s">
+      <c r="J63" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="23" t="s">
         <v>1359</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J65" s="26" t="s">
+      <c r="J65" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J68" s="26" t="s">
+      <c r="J68" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J69" s="26" t="s">
+      <c r="J69" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J71" s="26" t="s">
+      <c r="J71" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J72" s="26" t="s">
+      <c r="J72" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="G73" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="J73" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J74" s="26" t="s">
+      <c r="J74" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="G75" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J75" s="26" t="s">
+      <c r="J75" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J76" s="26" t="s">
+      <c r="J76" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J77" s="26" t="s">
+      <c r="J77" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J78" s="26" t="s">
+      <c r="J78" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J80" s="26" t="s">
+      <c r="J80" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J81" s="26" t="s">
+      <c r="J81" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F82" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J82" s="26" t="s">
+      <c r="J82" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G83" s="26" t="s">
+      <c r="G83" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J83" s="26" t="s">
+      <c r="J83" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="G84" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J84" s="26" t="s">
+      <c r="J84" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J85" s="26" t="s">
+      <c r="J85" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="G86" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J86" s="26" t="s">
+      <c r="J86" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J87" s="26" t="s">
+      <c r="J87" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G88" s="26" t="s">
+      <c r="G88" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J88" s="26" t="s">
+      <c r="J88" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="23" t="s">
         <v>1132</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J89" s="26" t="s">
+      <c r="J89" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="23" t="s">
         <v>1132</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J90" s="26" t="s">
+      <c r="J90" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="23" t="s">
         <v>1132</v>
       </c>
-      <c r="F91" s="26" t="s">
+      <c r="F91" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J91" s="26" t="s">
+      <c r="J91" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J92" s="26" t="s">
+      <c r="J92" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="F93" s="26" t="s">
+      <c r="F93" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J93" s="26" t="s">
+      <c r="J93" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="F94" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J94" s="26" t="s">
+      <c r="J94" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F95" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="G95" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J95" s="26" t="s">
+      <c r="J95" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="F96" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J96" s="26" t="s">
+      <c r="J96" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="F97" s="26" t="s">
+      <c r="F97" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G97" s="26" t="s">
+      <c r="G97" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J97" s="26" t="s">
+      <c r="J97" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="F98" s="26" t="s">
+      <c r="F98" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G98" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J98" s="26" t="s">
+      <c r="J98" s="23" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="30">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J99" s="26" t="s">
+      <c r="J99" s="23" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="30">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="F100" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="J100" s="26" t="s">
+      <c r="J100" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -9149,7 +9149,7 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date inacceptable" error="Spécifiez s'il vous plaît une date ultérieure au 1er Janvier 2015." promptTitle="Date" prompt="La date à laquelle la formation a été complétée." sqref="H4:H3998">
-      <formula1>42005</formula1>
+      <formula1>41640</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Région" prompt="Dans le menu, choisissez la région où se situe l'établissement (ou d'où viennent les personnes indépendentes)." sqref="A4:A3998">
       <formula1>Regions</formula1>
